--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H2">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I2">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J2">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N2">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O2">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P2">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q2">
-        <v>182.3649950145069</v>
+        <v>193.7117076189202</v>
       </c>
       <c r="R2">
-        <v>182.3649950145069</v>
+        <v>774.8468304756809</v>
       </c>
       <c r="S2">
-        <v>0.03133820548186058</v>
+        <v>0.03059999942966092</v>
       </c>
       <c r="T2">
-        <v>0.03133820548186058</v>
+        <v>0.02126210570320045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H3">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I3">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J3">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N3">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P3">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q3">
-        <v>631.5886032425286</v>
+        <v>726.3460771548308</v>
       </c>
       <c r="R3">
-        <v>631.5886032425286</v>
+        <v>4358.076462928985</v>
       </c>
       <c r="S3">
-        <v>0.1085342799852635</v>
+        <v>0.1147384937125163</v>
       </c>
       <c r="T3">
-        <v>0.1085342799852635</v>
+        <v>0.1195873542652818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H4">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I4">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J4">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N4">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O4">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P4">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q4">
-        <v>347.0556275466001</v>
+        <v>382.5415810926605</v>
       </c>
       <c r="R4">
-        <v>347.0556275466001</v>
+        <v>2295.249486555963</v>
       </c>
       <c r="S4">
-        <v>0.05963918990498285</v>
+        <v>0.06042883162377156</v>
       </c>
       <c r="T4">
-        <v>0.05963918990498285</v>
+        <v>0.06298256026731094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H5">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I5">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J5">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N5">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O5">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P5">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q5">
-        <v>556.7084994886161</v>
+        <v>598.6289523921362</v>
       </c>
       <c r="R5">
-        <v>556.7084994886161</v>
+        <v>3591.773714352817</v>
       </c>
       <c r="S5">
-        <v>0.09566663464709717</v>
+        <v>0.09456344083143439</v>
       </c>
       <c r="T5">
-        <v>0.09566663464709717</v>
+        <v>0.09855970157310126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H6">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I6">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J6">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N6">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O6">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P6">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q6">
-        <v>113.9878000932702</v>
+        <v>131.184520688187</v>
       </c>
       <c r="R6">
-        <v>113.9878000932702</v>
+        <v>787.1071241291221</v>
       </c>
       <c r="S6">
-        <v>0.01958804156172617</v>
+        <v>0.02072278597706597</v>
       </c>
       <c r="T6">
-        <v>0.01958804156172617</v>
+        <v>0.02159853304517165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H7">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I7">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J7">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N7">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O7">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P7">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q7">
-        <v>1019.221649983084</v>
+        <v>1112.779125812225</v>
       </c>
       <c r="R7">
-        <v>1019.221649983084</v>
+        <v>4451.116503248901</v>
       </c>
       <c r="S7">
-        <v>0.1751464281628722</v>
+        <v>0.1757820476301807</v>
       </c>
       <c r="T7">
-        <v>0.1751464281628722</v>
+        <v>0.122140410035927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H8">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J8">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N8">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O8">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P8">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q8">
-        <v>19.15299493328379</v>
+        <v>20.432835777327</v>
       </c>
       <c r="R8">
-        <v>19.15299493328379</v>
+        <v>122.597014663962</v>
       </c>
       <c r="S8">
-        <v>0.003291314162372748</v>
+        <v>0.003227707663196979</v>
       </c>
       <c r="T8">
-        <v>0.003291314162372748</v>
+        <v>0.003364110921227789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H9">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J9">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N9">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O9">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P9">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q9">
-        <v>66.3329786336553</v>
+        <v>76.61545238766332</v>
       </c>
       <c r="R9">
-        <v>66.3329786336553</v>
+        <v>689.53907148897</v>
       </c>
       <c r="S9">
-        <v>0.01139887901447312</v>
+        <v>0.01210269027196747</v>
       </c>
       <c r="T9">
-        <v>0.01139887901447312</v>
+        <v>0.01892122681263948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H10">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J10">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N10">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O10">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P10">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q10">
-        <v>36.44972915684223</v>
+        <v>40.35073254241399</v>
       </c>
       <c r="R10">
-        <v>36.44972915684223</v>
+        <v>363.1565928817259</v>
       </c>
       <c r="S10">
-        <v>0.006263642328860429</v>
+        <v>0.006374072109329079</v>
       </c>
       <c r="T10">
-        <v>0.006263642328860429</v>
+        <v>0.009965161578998977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H11">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J11">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N11">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O11">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P11">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q11">
-        <v>58.46865002339561</v>
+        <v>63.14376774709266</v>
       </c>
       <c r="R11">
-        <v>58.46865002339561</v>
+        <v>568.293909723834</v>
       </c>
       <c r="S11">
-        <v>0.0100474467072719</v>
+        <v>0.009974612690157068</v>
       </c>
       <c r="T11">
-        <v>0.0100474467072719</v>
+        <v>0.01559421127349175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H12">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J12">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N12">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O12">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P12">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q12">
-        <v>11.9716382931324</v>
+        <v>13.837427797716</v>
       </c>
       <c r="R12">
-        <v>11.9716382931324</v>
+        <v>124.536850179444</v>
       </c>
       <c r="S12">
-        <v>0.002057246023310831</v>
+        <v>0.002185852821818432</v>
       </c>
       <c r="T12">
-        <v>0.002057246023310831</v>
+        <v>0.003417340780542927</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H13">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J13">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N13">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O13">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P13">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q13">
-        <v>107.0443760134245</v>
+        <v>117.376659437067</v>
       </c>
       <c r="R13">
-        <v>107.0443760134245</v>
+        <v>704.259956622402</v>
       </c>
       <c r="S13">
-        <v>0.01839486054283276</v>
+        <v>0.01854160368507816</v>
       </c>
       <c r="T13">
-        <v>0.01839486054283276</v>
+        <v>0.01932517376504497</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H14">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I14">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J14">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N14">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O14">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P14">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q14">
-        <v>65.71429239784325</v>
+        <v>0.7981877618854999</v>
       </c>
       <c r="R14">
-        <v>65.71429239784325</v>
+        <v>4.789126571312999</v>
       </c>
       <c r="S14">
-        <v>0.01129256192009251</v>
+        <v>0.0001260870876555787</v>
       </c>
       <c r="T14">
-        <v>0.01129256192009251</v>
+        <v>0.0001314155409563347</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H15">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I15">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J15">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N15">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O15">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P15">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q15">
-        <v>227.5897199751703</v>
+        <v>2.992904026322778</v>
       </c>
       <c r="R15">
-        <v>227.5897199751703</v>
+        <v>26.936136236905</v>
       </c>
       <c r="S15">
-        <v>0.03910977218831736</v>
+        <v>0.0004727791759425995</v>
       </c>
       <c r="T15">
-        <v>0.03910977218831736</v>
+        <v>0.0007391383088620085</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H16">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I16">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J16">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N16">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O16">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P16">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q16">
-        <v>125.0597187530427</v>
+        <v>1.576259959677667</v>
       </c>
       <c r="R16">
-        <v>125.0597187530427</v>
+        <v>14.186339637099</v>
       </c>
       <c r="S16">
-        <v>0.02149067677969</v>
+        <v>0.000248996586009254</v>
       </c>
       <c r="T16">
-        <v>0.02149067677969</v>
+        <v>0.0003892788110397622</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H17">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I17">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J17">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N17">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O17">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P17">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q17">
-        <v>200.6070579106989</v>
+        <v>2.466646490204556</v>
       </c>
       <c r="R17">
-        <v>200.6070579106989</v>
+        <v>22.199818411841</v>
       </c>
       <c r="S17">
-        <v>0.0344729820622477</v>
+        <v>0.000389648008998617</v>
       </c>
       <c r="T17">
-        <v>0.0344729820622477</v>
+        <v>0.0006091718609401132</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H18">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I18">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J18">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N18">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O18">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P18">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q18">
-        <v>41.07492024179417</v>
+        <v>0.540544917234</v>
       </c>
       <c r="R18">
-        <v>41.07492024179417</v>
+        <v>4.864904255106</v>
       </c>
       <c r="S18">
-        <v>0.0070584505024442</v>
+        <v>8.538809740713341E-05</v>
       </c>
       <c r="T18">
-        <v>0.0070584505024442</v>
+        <v>0.0001334949107870938</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H19">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I19">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J19">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N19">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O19">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P19">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q19">
-        <v>367.2713040124434</v>
+        <v>4.5851987513955</v>
       </c>
       <c r="R19">
-        <v>367.2713040124434</v>
+        <v>27.511192508373</v>
       </c>
       <c r="S19">
-        <v>0.06311311878585724</v>
+        <v>0.0007243087209452702</v>
       </c>
       <c r="T19">
-        <v>0.06311311878585724</v>
+        <v>0.0007549180820356754</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H20">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I20">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J20">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N20">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O20">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P20">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q20">
-        <v>105.0074357320895</v>
+        <v>0.260250625783</v>
       </c>
       <c r="R20">
-        <v>105.0074357320895</v>
+        <v>1.561503754698</v>
       </c>
       <c r="S20">
-        <v>0.01804482597021274</v>
+        <v>4.111093283114949E-05</v>
       </c>
       <c r="T20">
-        <v>0.01804482597021274</v>
+        <v>4.284828508358375E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H21">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I21">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J21">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N21">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O21">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P21">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q21">
-        <v>363.6745070447002</v>
+        <v>0.9758420047922223</v>
       </c>
       <c r="R21">
-        <v>363.6745070447002</v>
+        <v>8.78257804313</v>
       </c>
       <c r="S21">
-        <v>0.06249503326762113</v>
+        <v>0.0001541505423555753</v>
       </c>
       <c r="T21">
-        <v>0.06249503326762113</v>
+        <v>0.0002409974402102149</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H22">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I22">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J22">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N22">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O22">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P22">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q22">
-        <v>199.8378115392188</v>
+        <v>0.5139425339393333</v>
       </c>
       <c r="R22">
-        <v>199.8378115392188</v>
+        <v>4.625482805453999</v>
       </c>
       <c r="S22">
-        <v>0.03434079221488307</v>
+        <v>8.118580667493963E-05</v>
       </c>
       <c r="T22">
-        <v>0.03434079221488307</v>
+        <v>0.0001269250908305623</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H23">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I23">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J23">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N23">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O23">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P23">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q23">
-        <v>320.5578569336103</v>
+        <v>0.8042547421984444</v>
       </c>
       <c r="R23">
-        <v>320.5578569336103</v>
+        <v>7.238292679785999</v>
       </c>
       <c r="S23">
-        <v>0.05508572513387902</v>
+        <v>0.0001270454685216495</v>
       </c>
       <c r="T23">
-        <v>0.05508572513387902</v>
+        <v>0.000198621634644658</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H24">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I24">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J24">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N24">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O24">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P24">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q24">
-        <v>65.63522013412812</v>
+        <v>0.176245690164</v>
       </c>
       <c r="R24">
-        <v>65.63522013412812</v>
+        <v>1.586211211476</v>
       </c>
       <c r="S24">
-        <v>0.01127897388008503</v>
+        <v>2.784095026981136E-05</v>
       </c>
       <c r="T24">
-        <v>0.01127897388008503</v>
+        <v>4.352626754025663E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.219698</v>
+      </c>
+      <c r="I25">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J25">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.4145605</v>
+      </c>
+      <c r="N25">
+        <v>40.829121</v>
+      </c>
+      <c r="O25">
+        <v>0.3538032458052225</v>
+      </c>
+      <c r="P25">
+        <v>0.2737772129294103</v>
+      </c>
+      <c r="Q25">
+        <v>1.495012704243</v>
+      </c>
+      <c r="R25">
+        <v>8.970076225458</v>
+      </c>
+      <c r="S25">
+        <v>0.000236162225089504</v>
+      </c>
+      <c r="T25">
+        <v>0.0002461424650267564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H26">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J26">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.5537505</v>
+      </c>
+      <c r="N26">
+        <v>7.107500999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.06158978841018558</v>
+      </c>
+      <c r="P26">
+        <v>0.04765892007993501</v>
+      </c>
+      <c r="Q26">
+        <v>67.13475833395401</v>
+      </c>
+      <c r="R26">
+        <v>402.808550003724</v>
+      </c>
+      <c r="S26">
+        <v>0.01060505630754538</v>
+      </c>
+      <c r="T26">
+        <v>0.01105322707853664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H27">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J27">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.32522833333333</v>
+      </c>
+      <c r="N27">
+        <v>39.975685</v>
+      </c>
+      <c r="O27">
+        <v>0.2309385516983846</v>
+      </c>
+      <c r="P27">
+        <v>0.2680545492087383</v>
+      </c>
+      <c r="Q27">
+        <v>251.7301042667711</v>
+      </c>
+      <c r="R27">
+        <v>2265.57093840094</v>
+      </c>
+      <c r="S27">
+        <v>0.03976497415502273</v>
+      </c>
+      <c r="T27">
+        <v>0.06216816908292393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H28">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J28">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>7.017941</v>
+      </c>
+      <c r="N28">
+        <v>21.053823</v>
+      </c>
+      <c r="O28">
+        <v>0.1216274190507089</v>
+      </c>
+      <c r="P28">
+        <v>0.1411751426744924</v>
+      </c>
+      <c r="Q28">
+        <v>132.5776170940947</v>
+      </c>
+      <c r="R28">
+        <v>1193.198553846852</v>
+      </c>
+      <c r="S28">
+        <v>0.02094284882071246</v>
+      </c>
+      <c r="T28">
+        <v>0.03274184365085808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H29">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J29">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10.98218566666667</v>
+      </c>
+      <c r="N29">
+        <v>32.946557</v>
+      </c>
+      <c r="O29">
+        <v>0.1903314516568828</v>
+      </c>
+      <c r="P29">
+        <v>0.2209211545622046</v>
+      </c>
+      <c r="Q29">
+        <v>207.4671197964743</v>
+      </c>
+      <c r="R29">
+        <v>1867.204078168268</v>
+      </c>
+      <c r="S29">
+        <v>0.03277289651451834</v>
+      </c>
+      <c r="T29">
+        <v>0.05123682374113642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H30">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J30">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.406654</v>
+      </c>
+      <c r="N30">
+        <v>7.219962000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.04170954337861558</v>
+      </c>
+      <c r="P30">
+        <v>0.04841302054521945</v>
+      </c>
+      <c r="Q30">
+        <v>45.46468151983201</v>
+      </c>
+      <c r="R30">
+        <v>409.1821336784881</v>
+      </c>
+      <c r="S30">
+        <v>0.007181905759219541</v>
+      </c>
+      <c r="T30">
+        <v>0.01122812075361024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H31">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J31">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.4145605</v>
+      </c>
+      <c r="N31">
+        <v>40.829121</v>
+      </c>
+      <c r="O31">
+        <v>0.3538032458052225</v>
+      </c>
+      <c r="P31">
+        <v>0.2737772129294103</v>
+      </c>
+      <c r="Q31">
+        <v>385.6563891194341</v>
+      </c>
+      <c r="R31">
+        <v>2313.938334716604</v>
+      </c>
+      <c r="S31">
+        <v>0.06092086757252423</v>
+      </c>
+      <c r="T31">
+        <v>0.06349538970589648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.264707</v>
+      </c>
+      <c r="H32">
+        <v>60.529414</v>
+      </c>
+      <c r="I32">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J32">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.5537505</v>
+      </c>
+      <c r="N32">
+        <v>7.107500999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.06158978841018558</v>
+      </c>
+      <c r="P32">
+        <v>0.04765892007993501</v>
+      </c>
+      <c r="Q32">
+        <v>107.5532176336035</v>
+      </c>
+      <c r="R32">
+        <v>430.212870534414</v>
+      </c>
+      <c r="S32">
+        <v>0.01698982698929558</v>
+      </c>
+      <c r="T32">
+        <v>0.01180521255093021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.264707</v>
+      </c>
+      <c r="H33">
+        <v>60.529414</v>
+      </c>
+      <c r="I33">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J33">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>13.32522833333333</v>
+      </c>
+      <c r="N33">
+        <v>39.975685</v>
+      </c>
+      <c r="O33">
+        <v>0.2309385516983846</v>
+      </c>
+      <c r="P33">
+        <v>0.2680545492087383</v>
+      </c>
+      <c r="Q33">
+        <v>403.2841312164317</v>
+      </c>
+      <c r="R33">
+        <v>2419.70478729859</v>
+      </c>
+      <c r="S33">
+        <v>0.06370546384057992</v>
+      </c>
+      <c r="T33">
+        <v>0.06639766329882087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.264707</v>
+      </c>
+      <c r="H34">
+        <v>60.529414</v>
+      </c>
+      <c r="I34">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J34">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>7.017941</v>
+      </c>
+      <c r="N34">
+        <v>21.053823</v>
+      </c>
+      <c r="O34">
+        <v>0.1216274190507089</v>
+      </c>
+      <c r="P34">
+        <v>0.1411751426744924</v>
+      </c>
+      <c r="Q34">
+        <v>212.395928108287</v>
+      </c>
+      <c r="R34">
+        <v>1274.375568649722</v>
+      </c>
+      <c r="S34">
+        <v>0.03355148410421159</v>
+      </c>
+      <c r="T34">
+        <v>0.03496937327545407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="H25">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="I25">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="J25">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>19.6796972294029</v>
-      </c>
-      <c r="N25">
-        <v>19.6796972294029</v>
-      </c>
-      <c r="O25">
-        <v>0.3575053262633079</v>
-      </c>
-      <c r="P25">
-        <v>0.3575053262633079</v>
-      </c>
-      <c r="Q25">
-        <v>586.8771684984787</v>
-      </c>
-      <c r="R25">
-        <v>586.8771684984787</v>
-      </c>
-      <c r="S25">
-        <v>0.1008509187717457</v>
-      </c>
-      <c r="T25">
-        <v>0.1008509187717457</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.264707</v>
+      </c>
+      <c r="H35">
+        <v>60.529414</v>
+      </c>
+      <c r="I35">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J35">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>10.98218566666667</v>
+      </c>
+      <c r="N35">
+        <v>32.946557</v>
+      </c>
+      <c r="O35">
+        <v>0.1903314516568828</v>
+      </c>
+      <c r="P35">
+        <v>0.2209211545622046</v>
+      </c>
+      <c r="Q35">
+        <v>332.3726314212663</v>
+      </c>
+      <c r="R35">
+        <v>1994.235788527598</v>
+      </c>
+      <c r="S35">
+        <v>0.0525038081432527</v>
+      </c>
+      <c r="T35">
+        <v>0.05472262447889035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.264707</v>
+      </c>
+      <c r="H36">
+        <v>60.529414</v>
+      </c>
+      <c r="I36">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J36">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.406654</v>
+      </c>
+      <c r="N36">
+        <v>7.219962000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.04170954337861558</v>
+      </c>
+      <c r="P36">
+        <v>0.04841302054521945</v>
+      </c>
+      <c r="Q36">
+        <v>72.836678160378</v>
+      </c>
+      <c r="R36">
+        <v>437.0200689622681</v>
+      </c>
+      <c r="S36">
+        <v>0.01150576977283469</v>
+      </c>
+      <c r="T36">
+        <v>0.01199200478756728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.264707</v>
+      </c>
+      <c r="H37">
+        <v>60.529414</v>
+      </c>
+      <c r="I37">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J37">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>20.4145605</v>
+      </c>
+      <c r="N37">
+        <v>40.829121</v>
+      </c>
+      <c r="O37">
+        <v>0.3538032458052225</v>
+      </c>
+      <c r="P37">
+        <v>0.2737772129294103</v>
+      </c>
+      <c r="Q37">
+        <v>617.8406920662735</v>
+      </c>
+      <c r="R37">
+        <v>2471.362768265094</v>
+      </c>
+      <c r="S37">
+        <v>0.0975982559714047</v>
+      </c>
+      <c r="T37">
+        <v>0.06781517887547933</v>
       </c>
     </row>
   </sheetData>
